--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.7922</v>
+        <v>15.94301</v>
       </c>
     </row>
     <row r="4">
@@ -22713,13 +22713,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.01373</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.00017</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>76.87321</v>
       </c>
     </row>
     <row r="7">
@@ -22729,13 +22729,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05009</v>
+        <v>0.03027</v>
       </c>
       <c r="C7" t="n">
-        <v>16.25444</v>
+        <v>11.02648</v>
       </c>
       <c r="D7" t="n">
-        <v>50.24302</v>
+        <v>39.35951</v>
       </c>
     </row>
     <row r="8">
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.60128</v>
+        <v>0.36456</v>
       </c>
     </row>
     <row r="12">

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39953,7 +39953,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>15.94301</v>
+        <v>15.88514</v>
       </c>
     </row>
     <row r="4">
@@ -39995,13 +39995,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.01373</v>
+        <v>0.01371</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.00017</v>
+        <v>4.99276</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>76.87321</v>
+        <v>76.224</v>
       </c>
     </row>
     <row r="7">
@@ -40017,7 +40017,7 @@
         <v>11.02648</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>39.35951</v>
+        <v>44.87581</v>
       </c>
     </row>
     <row r="8">
@@ -40081,7 +40081,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0.36456</v>
+        <v>0.3508</v>
       </c>
     </row>
     <row r="12">
